--- a/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,37</t>
+          <t>1,59; 6,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,14</t>
+          <t>1,1; 4,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,73</t>
+          <t>1,59; 4,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,18</t>
+          <t>-3,8; -0,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -0,95</t>
+          <t>-4,2; -0,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,97</t>
+          <t>-1,43; 4,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -1,36</t>
+          <t>-4,28; -1,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -0,15</t>
+          <t>-3,5; -0,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,45</t>
+          <t>-0,34; 4,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -1,15</t>
+          <t>-3,58; -1,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,96</t>
+          <t>-3,38; -0,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,5</t>
+          <t>0,07; 3,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,12; -2,16</t>
+          <t>-87,93; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-95,51; -35,68</t>
+          <t>-100,0; -32,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 219,89</t>
+          <t>-39,91; 219,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -23,5</t>
+          <t>-100,0; -43,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,18; 4,01</t>
+          <t>-87,06; 16,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 258,6</t>
+          <t>-15,31; 239,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-92,24; -49,63</t>
+          <t>-90,77; -48,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,01; -39,66</t>
+          <t>-87,82; -37,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 153,5</t>
+          <t>0,5; 160,14</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,56</t>
+          <t>1,17; 5,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,0</t>
+          <t>-1,5; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,08</t>
+          <t>-0,61; 1,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,0</t>
+          <t>0,75; 3,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,27</t>
+          <t>-0,48; 0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,58</t>
+          <t>-0,35; 0,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,21</t>
+          <t>-1,83; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,06</t>
+          <t>-4,06; 0,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,3</t>
+          <t>-3,92; 0,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,16</t>
+          <t>1,07; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,18</t>
+          <t>0,55; 4,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,46</t>
+          <t>-1,25; 0,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,27</t>
+          <t>0,26; 3,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,55</t>
+          <t>-1,3; 1,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,06</t>
+          <t>-2,35; 0,02</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 225,59</t>
+          <t>-43,16; 207,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-93,1; 37,47</t>
+          <t>-92,07; 33,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,88; 39,98</t>
+          <t>-89,43; 53,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39,72; —</t>
+          <t>42,75; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,87; —</t>
+          <t>-23,17; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,58; 355,63</t>
+          <t>2,8; 337,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,43; 150,92</t>
+          <t>-55,17; 147,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 12,9</t>
+          <t>-86,49; 12,11</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-2,16; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,0</t>
+          <t>-2,07; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,0</t>
+          <t>-2,09; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,17</t>
+          <t>-0,21; 1,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,0</t>
+          <t>-1,28; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,84</t>
+          <t>-0,73; 2,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,57</t>
+          <t>-1,28; 1,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,85</t>
+          <t>-0,06; 3,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,37</t>
+          <t>-0,7; 3,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,32</t>
+          <t>-0,39; 3,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,14</t>
+          <t>0,13; 3,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,26</t>
+          <t>-0,34; 2,25</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,85</t>
+          <t>-0,49; 1,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,03</t>
+          <t>0,44; 3,21</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,06; —</t>
+          <t>-58,72; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,22 +1896,22 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,33; —</t>
+          <t>-39,13; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 906,96</t>
+          <t>-46,69; 994,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 742,78</t>
+          <t>-58,31; 739,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>7,23; 1163,83</t>
+          <t>11,36; 1288,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,22</t>
+          <t>-3,14; -0,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,28</t>
+          <t>-3,1; 0,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,01</t>
+          <t>-2,14; 2,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,35</t>
+          <t>-2,84; 0,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,78</t>
+          <t>-4,02; -0,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,42</t>
+          <t>-3,1; 0,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,28</t>
+          <t>-2,54; -0,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,56</t>
+          <t>-2,84; -0,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,57</t>
+          <t>-2,15; 0,61</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-86,38; 0,47</t>
+          <t>-86,9; 2,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-83,84; 35,55</t>
+          <t>-85,12; 52,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 131,6</t>
+          <t>-62,38; 135,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-75,67; 29,82</t>
+          <t>-72,36; 47,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-94,59; -23,25</t>
+          <t>-94,0; -14,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 26,51</t>
+          <t>-74,18; 31,02</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-74,93; -11,07</t>
+          <t>-73,62; -2,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-83,88; -22,73</t>
+          <t>-84,39; -21,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 31,32</t>
+          <t>-63,44; 32,93</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,56</t>
+          <t>-2,8; -0,57</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,2</t>
+          <t>-2,43; -0,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,99</t>
+          <t>-1,69; 1,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,4</t>
+          <t>-3,04; -0,44</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,44</t>
+          <t>-3,1; -0,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,84</t>
+          <t>-3,45; -0,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,49; -0,83</t>
+          <t>-2,52; -0,82</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,4; -0,7</t>
+          <t>-2,38; -0,68</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,11; -0,28</t>
+          <t>-2,08; -0,32</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,26</t>
+          <t>-100,0; -30,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-93,43; 0,88</t>
+          <t>-94,09; -6,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-68,46; 107,3</t>
+          <t>-71,72; 105,26</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-89,2; -15,69</t>
+          <t>-88,89; -15,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-90,25; -22,84</t>
+          <t>-89,03; -13,35</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-95,11; -34,68</t>
+          <t>-95,59; -34,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-89,88; -46,2</t>
+          <t>-90,54; -47,44</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -36,69</t>
+          <t>-85,89; -37,56</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-76,96; -13,51</t>
+          <t>-77,93; -16,89</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,2</t>
+          <t>-1,01; 0,24</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,22</t>
+          <t>-1,33; -0,18</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,8</t>
+          <t>-0,62; 0,76</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,54</t>
+          <t>-0,76; 0,51</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,21; -0,04</t>
+          <t>-1,15; 0,01</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,35</t>
+          <t>-0,8; 0,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,27</t>
+          <t>-0,68; 0,17</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,05; -0,23</t>
+          <t>-1,09; -0,25</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,38</t>
+          <t>-0,52; 0,39</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 16,39</t>
+          <t>-50,15; 20,13</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-66,1; -15,21</t>
+          <t>-66,06; -10,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 57,05</t>
+          <t>-32,56; 58,13</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 39,13</t>
+          <t>-35,85; 38,65</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -2,02</t>
+          <t>-56,04; 2,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 26,47</t>
+          <t>-39,47; 28,73</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 18,78</t>
+          <t>-36,7; 13,44</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -16,33</t>
+          <t>-56,97; -17,11</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 27,13</t>
+          <t>-28,01; 26,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,7</t>
+          <t>1,63; 6,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,79</t>
+          <t>1,04; 4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,61</t>
+          <t>1,65; 4,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,19</t>
+          <t>-3,85; -0,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,83</t>
+          <t>-4,37; -0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,31</t>
+          <t>-1,32; 4,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -1,38</t>
+          <t>-4,45; -1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; -0,07</t>
+          <t>-3,62; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,35</t>
+          <t>-0,29; 4,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -1,13</t>
+          <t>-3,44; -1,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; -0,89</t>
+          <t>-3,26; -0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,51</t>
+          <t>0,05; 3,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,93; 2,78</t>
+          <t>-89,54; -1,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -32,93</t>
+          <t>-95,65; -16,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 219,44</t>
+          <t>-38,33; 235,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -43,54</t>
+          <t>-100,0; -50,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-87,06; 16,75</t>
+          <t>-87,59; 5,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 239,57</t>
+          <t>-12,26; 230,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-90,77; -48,83</t>
+          <t>-90,66; -46,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,82; -37,86</t>
+          <t>-87,57; -39,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 160,14</t>
+          <t>-1,27; 159,61</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,27</t>
+          <t>1,19; 5,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,0</t>
+          <t>-1,51; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,2</t>
+          <t>-0,86; 1,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,01</t>
+          <t>0,72; 3,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,27</t>
+          <t>-0,49; 0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,62</t>
+          <t>-0,32; 0,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,19</t>
+          <t>-1,75; 3,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,03</t>
+          <t>-4,13; 0,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,17</t>
+          <t>-4,17; 0,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,23</t>
+          <t>1,12; 4,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,29</t>
+          <t>0,57; 4,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,47</t>
+          <t>-1,2; 0,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,06</t>
+          <t>0,4; 3,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,43</t>
+          <t>-1,28; 1,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,02</t>
+          <t>-2,32; 0,03</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 207,01</t>
+          <t>-40,91; 225,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,07; 33,9</t>
+          <t>-93,06; 35,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,43; 53,27</t>
+          <t>-91,08; 51,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42,75; —</t>
+          <t>66,45; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,17; —</t>
+          <t>-3,08; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,8; 337,82</t>
+          <t>6,4; 339,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,17; 147,59</t>
+          <t>-55,55; 160,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,49; 12,11</t>
+          <t>-88,02; 26,28</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-2,36; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,0</t>
+          <t>-2,54; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,38</t>
+          <t>-0,38; 1,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,0</t>
+          <t>-1,05; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,0</t>
+          <t>-1,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,61</t>
+          <t>-0,71; 2,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,6</t>
+          <t>-1,4; 1,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,75</t>
+          <t>-0,27; 3,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,23</t>
+          <t>-0,69; 3,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,09</t>
+          <t>-0,65; 3,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,9</t>
+          <t>0,11; 4,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,25</t>
+          <t>-0,23; 2,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,95</t>
+          <t>-0,5; 1,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,21</t>
+          <t>0,54; 3,1</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-58,72; —</t>
+          <t>-56,26; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,22 +1896,22 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,13; —</t>
+          <t>-33,6; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 994,72</t>
+          <t>-38,37; 938,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 739,83</t>
+          <t>-64,2; 659,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11,36; 1288,68</t>
+          <t>25,61; 1442,01</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,16</t>
+          <t>-3,11; -0,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,4</t>
+          <t>-2,99; 0,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,04</t>
+          <t>-1,91; 2,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,58</t>
+          <t>-2,95; 0,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,02; -0,75</t>
+          <t>-3,63; -0,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,5</t>
+          <t>-3,02; 0,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; -0,26</t>
+          <t>-2,5; -0,24</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,54</t>
+          <t>-2,85; -0,57</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,61</t>
+          <t>-2,05; 0,65</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-86,9; 2,87</t>
+          <t>-87,71; 8,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-85,12; 52,12</t>
+          <t>-85,32; 43,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-62,38; 135,94</t>
+          <t>-61,97; 162,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 47,33</t>
+          <t>-75,95; 27,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-94,0; -14,39</t>
+          <t>-93,36; -24,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 31,02</t>
+          <t>-74,85; 37,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-73,62; -2,86</t>
+          <t>-72,67; -7,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-84,39; -21,72</t>
+          <t>-82,31; -16,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 32,93</t>
+          <t>-62,82; 39,31</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,57</t>
+          <t>-2,7; -0,5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,33</t>
+          <t>-2,4; -0,19</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,01</t>
+          <t>-1,72; 0,99</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,04; -0,44</t>
+          <t>-3,13; -0,48</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,44</t>
+          <t>-3,11; -0,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,92</t>
+          <t>-3,39; -0,9</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,82</t>
+          <t>-2,46; -0,8</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,68</t>
+          <t>-2,45; -0,67</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,08; -0,32</t>
+          <t>-2,13; -0,32</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -30,63</t>
+          <t>-100,0; -24,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-94,09; -6,46</t>
+          <t>-93,57; -9,13</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 105,26</t>
+          <t>-70,89; 94,9</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-88,89; -15,4</t>
+          <t>-89,82; -23,86</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-89,03; -13,35</t>
+          <t>-89,45; -19,91</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-95,59; -34,81</t>
+          <t>-95,55; -41,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-90,54; -47,44</t>
+          <t>-89,89; -44,56</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-85,89; -37,56</t>
+          <t>-86,45; -38,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,93; -16,89</t>
+          <t>-78,72; -17,06</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,24</t>
+          <t>-1,03; 0,23</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,18</t>
+          <t>-1,44; -0,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,76</t>
+          <t>-0,66; 0,76</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,51</t>
+          <t>-0,7; 0,54</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,01</t>
+          <t>-1,06; 0,05</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,4</t>
+          <t>-0,75; 0,41</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,17</t>
+          <t>-0,67; 0,22</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,09; -0,25</t>
+          <t>-1,08; -0,28</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,39</t>
+          <t>-0,53; 0,36</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 20,13</t>
+          <t>-50,63; 19,67</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-66,06; -10,99</t>
+          <t>-68,28; -11,51</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 58,13</t>
+          <t>-34,07; 54,55</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 38,65</t>
+          <t>-34,88; 40,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 2,1</t>
+          <t>-54,82; 3,57</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 28,73</t>
+          <t>-37,82; 31,86</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 13,44</t>
+          <t>-34,16; 15,21</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-56,97; -17,11</t>
+          <t>-55,67; -18,33</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 26,96</t>
+          <t>-27,46; 25,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 4,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 4,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,03</t>
+          <t>-1,22; 4,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,12</t>
+          <t>-0,23; 4,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,55</t>
+          <t>0,03; 3,6</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>75,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>56,03%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 235,05</t>
+          <t>-35,89; 233,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 230,36</t>
+          <t>-10,44; 235,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 159,61</t>
+          <t>-1,88; 155,73</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,07</t>
+          <t>-0,85; 1,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,64</t>
+          <t>-0,31; 0,65</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>81,19%</t>
+          <t>82,74%</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,01</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,36</t>
+          <t>-1,34; 4,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,41</t>
+          <t>-4,17; 0,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,03</t>
+          <t>1,82; 6,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,5</t>
+          <t>-1,3; 0,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,14</t>
+          <t>0,84; 4,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,03</t>
+          <t>-2,35; -0,05</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-58,79%</t>
+          <t>-58,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>506,15%</t>
+          <t>743,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>-46,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>108,7%</t>
+          <t>160,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,25%</t>
+          <t>-62,12%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 225,84</t>
+          <t>-40,36; 285,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,08; 51,9</t>
+          <t>-90,92; 51,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66,45; —</t>
+          <t>94,63; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 339,12</t>
+          <t>25,33; 418,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-88,02; 26,28</t>
+          <t>-89,44; 15,44</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,81</t>
+          <t>-0,25; 3,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,11</t>
+          <t>0,12; 4,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,1</t>
+          <t>0,52; 3,12</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>217,36%</t>
+          <t>220,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>273,19%</t>
+          <t>268,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>245,15%</t>
+          <t>243,91%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-56,26; —</t>
+          <t>-56,31; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,6; —</t>
+          <t>-33,97; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>25,61; 1442,01</t>
+          <t>26,19; 1469,39</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,01</t>
+          <t>-1,92; 1,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,66</t>
+          <t>-3,31; 0,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,65</t>
+          <t>-2,18; 0,55</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-39,02%</t>
+          <t>-46,29%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-25,04%</t>
+          <t>-30,31%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-61,97; 162,79</t>
+          <t>-62,18; 162,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-74,85; 37,96</t>
+          <t>-81,68; 21,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 39,31</t>
+          <t>-68,53; 26,37</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,99</t>
+          <t>-2,17; 0,66</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,39; -0,9</t>
+          <t>-3,41; -0,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,13; -0,32</t>
+          <t>-2,28; -0,46</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>-36,03%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-80,02%</t>
+          <t>-80,62%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-55,15%</t>
+          <t>-60,71%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 94,9</t>
+          <t>-82,8; 61,67</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-95,55; -41,1</t>
+          <t>-95,78; -43,34</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-78,72; -17,06</t>
+          <t>-83,67; -26,91</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,76</t>
+          <t>-0,8; 0,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,41</t>
+          <t>-0,84; 0,35</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,36</t>
+          <t>-0,6; 0,32</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>-15,48%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-10,41%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 54,55</t>
+          <t>-40,87; 45,46</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 31,86</t>
+          <t>-42,29; 26,97</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 25,51</t>
+          <t>-31,53; 20,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,94</t>
+          <t>1,46; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,77</t>
+          <t>1,48; 6,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,29</t>
+          <t>0,34; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,84</t>
+          <t>1,03; 5,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,04</t>
+          <t>1,28; 3,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,8</t>
+          <t>1,7; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -0,13</t>
+          <t>-3,85; -0,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; -0,88</t>
+          <t>-4,32; -0,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,16</t>
+          <t>-1,54; 3,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -1,21</t>
+          <t>-4,49; -1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -0,13</t>
+          <t>-3,45; -0,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,21</t>
+          <t>-0,26; 4,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -1,12</t>
+          <t>-3,43; -1,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,95</t>
+          <t>-3,35; -0,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,6</t>
+          <t>0,07; 3,55</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,54; -1,64</t>
+          <t>-87,2; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-95,65; -16,9</t>
+          <t>-95,68; -35,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 233,79</t>
+          <t>-43,79; 187,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -50,09</t>
+          <t>-100,0; -51,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-87,59; 5,27</t>
+          <t>-86,31; 8,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 235,4</t>
+          <t>-7,71; 255,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-90,66; -46,61</t>
+          <t>-90,89; -46,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,57; -39,23</t>
+          <t>-87,98; -38,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 155,73</t>
+          <t>0,86; 163,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,49</t>
+          <t>1,14; 5,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,0</t>
+          <t>-1,7; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,12</t>
+          <t>-0,55; 1,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,03</t>
+          <t>0,62; 2,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,27</t>
+          <t>-0,46; 0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,65</t>
+          <t>-0,31; 0,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,53</t>
+          <t>-1,54; 4,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,09</t>
+          <t>-4,21; 0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,39</t>
+          <t>-4,2; 0,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,3</t>
+          <t>1,81; 5,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,24</t>
+          <t>0,73; 4,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,38</t>
+          <t>-1,24; 0,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,56</t>
+          <t>0,79; 4,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,51</t>
+          <t>-1,08; 1,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; -0,05</t>
+          <t>-2,19; -0,0</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 285,49</t>
+          <t>-45,13; 254,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-93,06; 35,27</t>
+          <t>-92,69; 48,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,92; 51,82</t>
+          <t>-89,42; 62,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>94,63; —</t>
+          <t>56,54; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,08; —</t>
+          <t>0,78; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,33; 418,61</t>
+          <t>29,04; 427,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 160,55</t>
+          <t>-49,17; 175,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 15,44</t>
+          <t>-87,54; 14,67</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,0</t>
+          <t>-2,09; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,14; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,0</t>
+          <t>-2,13; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,16</t>
+          <t>-0,39; 1,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,0</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,0</t>
+          <t>-1,1; 0,0</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,93</t>
+          <t>-0,75; 2,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,57</t>
+          <t>-1,4; 1,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,9</t>
+          <t>-0,21; 3,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,32</t>
+          <t>-0,71; 3,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,08</t>
+          <t>-0,33; 3,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,08</t>
+          <t>0,15; 4,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,29</t>
+          <t>-0,31; 2,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,86</t>
+          <t>-0,47; 1,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,12</t>
+          <t>0,55; 3,21</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-56,31; —</t>
+          <t>-55,57; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,97; —</t>
+          <t>-33,06; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 938,56</t>
+          <t>-48,04; 923,86</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-64,2; 659,85</t>
+          <t>-61,03; 824,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>26,19; 1469,39</t>
+          <t>20,94; 1374,82</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,03</t>
+          <t>-3,29; -0,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,37</t>
+          <t>-3,01; 0,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,92</t>
+          <t>-2,21; 2,03</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,45</t>
+          <t>-2,95; 0,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,74</t>
+          <t>-3,82; -0,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,38</t>
+          <t>-3,21; 0,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; -0,24</t>
+          <t>-2,59; -0,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; -0,57</t>
+          <t>-2,8; -0,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,55</t>
+          <t>-2,22; 0,5</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-87,71; 8,49</t>
+          <t>-89,22; -0,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-85,32; 43,64</t>
+          <t>-84,75; 37,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 162,94</t>
+          <t>-66,52; 116,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 27,34</t>
+          <t>-74,63; 24,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-93,36; -24,23</t>
+          <t>-93,65; -19,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-81,68; 21,27</t>
+          <t>-80,51; 15,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-72,67; -7,82</t>
+          <t>-74,13; -7,74</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-82,31; -16,9</t>
+          <t>-83,81; -22,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 26,37</t>
+          <t>-64,87; 27,47</t>
         </is>
       </c>
     </row>
@@ -2197,32 +2197,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,5</t>
+          <t>-2,73; -0,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,4; -0,19</t>
+          <t>-2,49; -0,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,66</t>
+          <t>-2,16; 0,64</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,48</t>
+          <t>-3,24; -0,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,49</t>
+          <t>-3,19; -0,54</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,92</t>
+          <t>-3,58; -0,9</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,45; -0,67</t>
+          <t>-2,39; -0,57</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,28; -0,46</t>
+          <t>-2,24; -0,49</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -24,82</t>
+          <t>-100,0; -23,21</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-93,57; -9,13</t>
+          <t>-93,34; -0,48</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-82,8; 61,67</t>
+          <t>-83,35; 62,29</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-89,82; -23,86</t>
+          <t>-91,54; -23,09</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-89,45; -19,91</t>
+          <t>-90,0; -23,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-95,78; -43,34</t>
+          <t>-96,0; -43,37</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-89,89; -44,56</t>
+          <t>-90,09; -48,16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-86,45; -38,46</t>
+          <t>-86,79; -36,13</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-83,67; -26,91</t>
+          <t>-82,29; -26,56</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,23</t>
+          <t>-1,02; 0,16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,44; -0,16</t>
+          <t>-1,37; -0,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,61</t>
+          <t>-0,79; 0,55</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,54</t>
+          <t>-0,67; 0,55</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,05</t>
+          <t>-1,09; 0,04</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,35</t>
+          <t>-0,86; 0,31</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,22</t>
+          <t>-0,69; 0,19</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,08; -0,28</t>
+          <t>-1,07; -0,28</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,32</t>
+          <t>-0,58; 0,32</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 19,67</t>
+          <t>-49,18; 13,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-68,28; -11,51</t>
+          <t>-66,82; -12,07</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 45,46</t>
+          <t>-40,09; 41,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 40,05</t>
+          <t>-34,32; 38,2</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 3,57</t>
+          <t>-54,64; 3,5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 26,97</t>
+          <t>-43,02; 24,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 15,21</t>
+          <t>-34,99; 13,59</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -18,33</t>
+          <t>-55,98; -18,82</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 20,27</t>
+          <t>-30,69; 21,06</t>
         </is>
       </c>
     </row>
